--- a/March'21/08.03.2021/Market Due.xlsx
+++ b/March'21/08.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="11" sheetId="10" r:id="rId10"/>
     <sheet name="12" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="70">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -423,13 +424,22 @@
     <t>07.03.2021</t>
   </si>
   <si>
-    <t>Till-9.50 PM</t>
-  </si>
-  <si>
     <t>08.03.2021</t>
   </si>
   <si>
     <t>Rubel</t>
+  </si>
+  <si>
+    <t>Date:09.03.2021</t>
+  </si>
+  <si>
+    <t>I top up Target</t>
+  </si>
+  <si>
+    <t>Month:March</t>
+  </si>
+  <si>
+    <t>Till 08.03.21 Ach</t>
   </si>
 </sst>
 </file>
@@ -1644,21 +1654,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28">
+        <v>190</v>
+      </c>
+      <c r="C3" s="28">
+        <v>51</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3-C3</f>
+        <v>139</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="28">
+        <v>125</v>
+      </c>
+      <c r="C4" s="28">
+        <v>18</v>
+      </c>
+      <c r="D4" s="28">
+        <f t="shared" ref="D4:D23" si="0">B4-C4</f>
+        <v>107</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="28">
+        <v>170</v>
+      </c>
+      <c r="C5" s="28">
+        <v>50</v>
+      </c>
+      <c r="D5" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="28">
+        <v>115</v>
+      </c>
+      <c r="C6" s="28">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="28">
+        <v>115</v>
+      </c>
+      <c r="C7" s="17">
+        <v>15</v>
+      </c>
+      <c r="D7" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>495</v>
+      </c>
+      <c r="C8" s="28">
+        <v>154</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="28">
+        <v>140</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28">
+        <v>220</v>
+      </c>
+      <c r="C10" s="28">
+        <v>57</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="28">
+        <v>210</v>
+      </c>
+      <c r="C11" s="28">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="28">
+        <v>200</v>
+      </c>
+      <c r="C12" s="28">
+        <v>43</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="28">
+        <v>175</v>
+      </c>
+      <c r="C13" s="28">
+        <v>47</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28">
+        <v>160</v>
+      </c>
+      <c r="C14" s="28">
+        <v>23</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="28">
+        <v>220</v>
+      </c>
+      <c r="C15" s="28">
+        <v>67</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="28">
+        <v>125</v>
+      </c>
+      <c r="C16" s="28">
+        <v>17</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="28">
+        <v>125</v>
+      </c>
+      <c r="C17" s="28">
+        <v>34</v>
+      </c>
+      <c r="D17" s="28">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="28">
+        <v>230</v>
+      </c>
+      <c r="C18" s="28">
+        <v>84</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="28">
+        <v>125</v>
+      </c>
+      <c r="C19" s="28">
+        <v>21</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="28">
+        <v>235</v>
+      </c>
+      <c r="C20" s="28">
+        <v>71</v>
+      </c>
+      <c r="D20" s="28">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="28">
+        <v>190</v>
+      </c>
+      <c r="C21" s="17">
+        <v>15</v>
+      </c>
+      <c r="D21" s="28">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="33">
+        <v>165</v>
+      </c>
+      <c r="C22" s="28">
+        <v>33</v>
+      </c>
+      <c r="D22" s="33">
+        <f>B22-C22</f>
+        <v>132</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="28">
+        <v>135</v>
+      </c>
+      <c r="C23" s="17">
+        <v>10</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="29">
+        <f>SUM(B3:B23)</f>
+        <v>3865</v>
+      </c>
+      <c r="C24" s="29">
+        <f>SUM(C3:C23)</f>
+        <v>859</v>
+      </c>
+      <c r="D24" s="29">
+        <f>SUM(D3:D23)</f>
+        <v>3006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -1670,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>62</v>
@@ -1685,14 +2097,12 @@
         <v>39</v>
       </c>
       <c r="B3" s="28">
-        <v>20</v>
-      </c>
-      <c r="C3" s="28">
-        <v>17</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="28">
         <f>B3-C3</f>
-        <v>3</v>
+        <v>18000</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -1701,14 +2111,12 @@
         <v>40</v>
       </c>
       <c r="B4" s="28">
-        <v>10</v>
-      </c>
-      <c r="C4" s="28">
-        <v>7</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>3</v>
+        <v>12000</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -1717,14 +2125,12 @@
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28">
-        <v>14</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -1733,14 +2139,12 @@
         <v>42</v>
       </c>
       <c r="B6" s="28">
-        <v>10</v>
-      </c>
-      <c r="C6" s="28">
-        <v>8</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -1749,14 +2153,12 @@
         <v>43</v>
       </c>
       <c r="B7" s="28">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28">
-        <v>4</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12000</v>
       </c>
       <c r="E7" s="26"/>
       <c r="G7" s="34"/>
@@ -1766,14 +2168,12 @@
         <v>44</v>
       </c>
       <c r="B8" s="28">
-        <v>30</v>
-      </c>
-      <c r="C8" s="28">
-        <v>37</v>
-      </c>
-      <c r="D8" s="29">
+        <v>14000</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>14000</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -1782,14 +2182,12 @@
         <v>45</v>
       </c>
       <c r="B9" s="28">
-        <v>5</v>
-      </c>
-      <c r="C9" s="28">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -1798,14 +2196,12 @@
         <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>10</v>
-      </c>
-      <c r="C10" s="28">
-        <v>10</v>
-      </c>
-      <c r="D10" s="29">
+        <v>25000</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E10" s="26"/>
     </row>
@@ -1814,14 +2210,12 @@
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>15</v>
-      </c>
-      <c r="C11" s="28">
-        <v>1</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25000</v>
       </c>
       <c r="E11" s="26"/>
     </row>
@@ -1830,14 +2224,12 @@
         <v>48</v>
       </c>
       <c r="B12" s="28">
-        <v>15</v>
-      </c>
-      <c r="C12" s="28">
-        <v>5</v>
-      </c>
+        <v>22000</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>22000</v>
       </c>
       <c r="E12" s="26"/>
     </row>
@@ -1846,14 +2238,12 @@
         <v>49</v>
       </c>
       <c r="B13" s="28">
-        <v>15</v>
-      </c>
-      <c r="C13" s="28">
-        <v>6</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18000</v>
       </c>
       <c r="E13" s="26"/>
     </row>
@@ -1862,14 +2252,12 @@
         <v>50</v>
       </c>
       <c r="B14" s="28">
-        <v>20</v>
-      </c>
-      <c r="C14" s="28">
-        <v>8</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13000</v>
       </c>
       <c r="E14" s="26"/>
     </row>
@@ -1878,14 +2266,12 @@
         <v>51</v>
       </c>
       <c r="B15" s="28">
-        <v>25</v>
-      </c>
-      <c r="C15" s="28">
-        <v>20</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="E15" s="26"/>
     </row>
@@ -1894,14 +2280,12 @@
         <v>52</v>
       </c>
       <c r="B16" s="28">
-        <v>17</v>
-      </c>
-      <c r="C16" s="28">
-        <v>10</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12000</v>
       </c>
       <c r="E16" s="26"/>
     </row>
@@ -1910,14 +2294,12 @@
         <v>53</v>
       </c>
       <c r="B17" s="28">
-        <v>15</v>
-      </c>
-      <c r="C17" s="28">
-        <v>11</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="26"/>
     </row>
@@ -1926,14 +2308,12 @@
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>30</v>
-      </c>
-      <c r="C18" s="28">
-        <v>16</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="26"/>
     </row>
@@ -1942,14 +2322,12 @@
         <v>55</v>
       </c>
       <c r="B19" s="28">
-        <v>10</v>
-      </c>
-      <c r="C19" s="28">
-        <v>6</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="C19" s="28"/>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14000</v>
       </c>
       <c r="E19" s="26"/>
     </row>
@@ -1958,14 +2336,12 @@
         <v>56</v>
       </c>
       <c r="B20" s="28">
-        <v>23</v>
-      </c>
-      <c r="C20" s="28">
-        <v>19</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="C20" s="28"/>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>25000</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -1974,14 +2350,12 @@
         <v>57</v>
       </c>
       <c r="B21" s="28">
-        <v>5</v>
-      </c>
-      <c r="C21" s="28">
-        <v>4</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13000</v>
       </c>
       <c r="E21" s="26"/>
     </row>
@@ -1990,14 +2364,12 @@
         <v>58</v>
       </c>
       <c r="B22" s="33">
-        <v>20</v>
-      </c>
-      <c r="C22" s="28">
-        <v>12</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="33">
         <f>B22-C22</f>
-        <v>8</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -2006,14 +2378,12 @@
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>10</v>
-      </c>
-      <c r="C23" s="28">
-        <v>4</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2022,15 +2392,15 @@
       </c>
       <c r="B24" s="29">
         <f>SUM(B3:B23)</f>
-        <v>330</v>
+        <v>348000</v>
       </c>
       <c r="C24" s="29">
         <f>SUM(C3:C23)</f>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D24" s="29">
         <f>SUM(D3:D23)</f>
-        <v>106</v>
+        <v>348000</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2408,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3972,7 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
@@ -4032,7 +4401,7 @@
         <v>7511</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4043,7 +4412,7 @@
         <v>536</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4054,7 +4423,7 @@
         <v>700</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4065,7 +4434,7 @@
         <v>3505</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4076,7 +4445,7 @@
         <v>356</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4087,7 +4456,7 @@
         <v>4193</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4098,7 +4467,7 @@
         <v>5625</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4109,7 +4478,7 @@
         <v>4580</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -4130,7 +4499,7 @@
         <v>4170</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -4216,7 +4585,7 @@
         <v>3967</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -4232,13 +4601,13 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>5000</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -4276,7 +4645,7 @@
         <v>14057</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4308,7 +4677,7 @@
         <v>2300</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
